--- a/Data/Processed/Angiosperms/missing_powo_ipni/Oleaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Oleaceae.xlsx
@@ -597,7 +597,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 448. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 448. 1910</t>
         </is>
       </c>
       <c r="J4" t="b">
